--- a/data/HR1_2/Market Data/HR1_market_data_2030.xlsx
+++ b/data/HR1_2/Market Data/HR1_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E99CADA-EF1E-4F81-9292-A93F2DC26504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6ACA18-22C2-470A-BE18-970B766D3E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
@@ -153,22 +153,22 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>1.2500000000000001E-2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.2500000000000001E-2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>1.2500000000000001E-2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>1.2500000000000001E-2</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1278,99 +1278,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>202.1219169022925</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>192.59396634104317</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>188.59673307736111</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>183.14596044506746</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>184.962884655832</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>192.79019415580569</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>209.19338593058814</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>217.00616003687574</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>226.45416593285142</v>
+        <v>200</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>214.70956783446937</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>209.83294325277728</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>190.57354661867299</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>185.29719871061269</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>158.3631142102389</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>164.7586874321301</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>149.40204400274806</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>145.35393686116464</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>144.58356099580047</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>146.48769756868171</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>166.37938382813209</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>201.65678430433678</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>201.38787952114362</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>190.6898297681619</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>181.39444550589042</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1379,99 +1379,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>202.1219169022925</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>192.59396634104317</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>188.59673307736111</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>183.14596044506746</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>184.962884655832</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>192.79019415580569</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>209.19338593058814</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>217.00616003687574</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>226.45416593285142</v>
+        <v>200</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>214.70956783446937</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>209.83294325277728</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>190.57354661867299</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>185.29719871061269</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>158.3631142102389</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>164.7586874321301</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>149.40204400274806</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>145.35393686116464</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>144.58356099580047</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>146.48769756868171</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>166.37938382813209</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>201.65678430433678</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>201.38787952114362</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>190.6898297681619</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>181.39444550589042</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1480,99 +1480,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>202.1219169022925</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>192.59396634104317</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>188.59673307736111</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>183.14596044506746</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>184.962884655832</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>192.79019415580569</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>209.19338593058814</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>217.00616003687574</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>226.45416593285142</v>
+        <v>200</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>214.70956783446937</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>209.83294325277728</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>190.57354661867299</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>185.29719871061269</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>158.3631142102389</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>164.7586874321301</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>149.40204400274806</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>145.35393686116464</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>144.58356099580047</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>146.48769756868171</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>166.37938382813209</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>201.65678430433678</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>201.38787952114362</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>190.6898297681619</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>181.39444550589042</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1581,99 +1581,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>202.1219169022925</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>192.59396634104317</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>188.59673307736111</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>183.14596044506746</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>184.962884655832</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>192.79019415580569</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>209.19338593058814</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>217.00616003687574</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>226.45416593285142</v>
+        <v>200</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>214.70956783446937</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>209.83294325277728</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>190.57354661867299</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>185.29719871061269</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>158.3631142102389</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>164.7586874321301</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>149.40204400274806</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>145.35393686116464</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>144.58356099580047</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>146.48769756868171</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>166.37938382813209</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>201.65678430433678</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>201.38787952114362</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>190.6898297681619</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>181.39444550589042</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1682,99 +1682,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>202.1219169022925</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>192.59396634104317</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>188.59673307736111</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>183.14596044506746</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>184.962884655832</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>192.79019415580569</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>209.19338593058814</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>217.00616003687574</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>226.45416593285142</v>
+        <v>200</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>214.70956783446937</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>209.83294325277728</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>190.57354661867299</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>185.29719871061269</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>158.3631142102389</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>164.7586874321301</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>149.40204400274806</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>145.35393686116464</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>144.58356099580047</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>146.48769756868171</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>166.37938382813209</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>201.65678430433678</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>201.38787952114362</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>190.6898297681619</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>181.39444550589042</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
   </sheetData>
@@ -1878,99 +1878,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>40.761749867913259</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>45.290833186570289</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>40.308841536047559</v>
+        <v>35.6</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>38.950116540450445</v>
+        <v>34.4</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>36.23266654925623</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>36.685574881121937</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>38.497208208584745</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>39.855933204181859</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1979,99 +1979,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>40.761749867913259</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>45.290833186570289</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>40.308841536047559</v>
+        <v>35.6</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>38.950116540450445</v>
+        <v>34.4</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>36.23266654925623</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>36.685574881121937</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>38.497208208584745</v>
+        <v>34</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>39.855933204181859</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2080,99 +2080,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>40.761749867913259</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>45.290833186570289</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>40.308841536047559</v>
+        <v>35.6</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>38.950116540450445</v>
+        <v>34.4</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>36.23266654925623</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>36.685574881121937</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>38.497208208584745</v>
+        <v>34</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>39.855933204181859</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2181,99 +2181,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>40.761749867913259</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>45.290833186570289</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>40.308841536047559</v>
+        <v>35.6</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>38.950116540450445</v>
+        <v>34.4</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>36.23266654925623</v>
+        <v>32</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>36.685574881121937</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>38.497208208584745</v>
+        <v>34</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>39.855933204181859</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -2282,99 +2282,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>40.761749867913259</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>45.290833186570289</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>40.308841536047559</v>
+        <v>35.6</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>38.950116540450445</v>
+        <v>34.4</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>36.23266654925623</v>
+        <v>32</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>36.685574881121937</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>38.497208208584745</v>
+        <v>34</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>39.855933204181859</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2478,99 +2478,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>222.33410859252177</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>216.71663679773883</v>
+        <v>191.4</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>230.11272452364699</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>238.70677604056331</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>244.11759087561387</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>246.60858670087524</v>
+        <v>217.8</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>239.13559922509114</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>224.18962427352295</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>234.15360757456841</v>
+        <v>206.8</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>229.17161592404565</v>
+        <v>202.4</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>219.20763262300022</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>199.53389005647949</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2579,99 +2579,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>222.33410859252177</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>216.71663679773883</v>
+        <v>191.4</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>230.11272452364699</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>238.70677604056331</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>244.11759087561387</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>246.60858670087524</v>
+        <v>217.8</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>239.13559922509114</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>224.18962427352295</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>234.15360757456841</v>
+        <v>206.8</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>229.17161592404565</v>
+        <v>202.4</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>219.20763262300022</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>199.53389005647949</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2680,99 +2680,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>222.33410859252177</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>216.71663679773883</v>
+        <v>191.4</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>230.11272452364699</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>238.70677604056331</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>244.11759087561387</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>246.60858670087524</v>
+        <v>217.8</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>239.13559922509114</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>224.18962427352295</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>234.15360757456841</v>
+        <v>206.8</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>229.17161592404565</v>
+        <v>202.4</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>219.20763262300022</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>199.53389005647949</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2781,99 +2781,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>222.33410859252177</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>216.71663679773883</v>
+        <v>191.4</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>230.11272452364699</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>238.70677604056331</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>244.11759087561387</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>246.60858670087524</v>
+        <v>217.8</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>239.13559922509114</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>224.18962427352295</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>234.15360757456841</v>
+        <v>206.8</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>229.17161592404565</v>
+        <v>202.4</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>219.20763262300022</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>199.53389005647949</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -2882,99 +2882,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>222.33410859252177</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>216.71663679773883</v>
+        <v>191.4</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>230.11272452364699</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>238.70677604056331</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>244.11759087561387</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>246.60858670087524</v>
+        <v>217.8</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>239.13559922509114</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>224.18962427352295</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>234.15360757456841</v>
+        <v>206.8</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>229.17161592404565</v>
+        <v>202.4</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>219.20763262300022</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>199.53389005647949</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
   </sheetData>
@@ -3078,99 +3078,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>181.90972521206325</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>177.31361192542266</v>
+        <v>156.6</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>188.27404733752934</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>195.30554403318814</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>203.8087493395663</v>
+        <v>180</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>199.73257435277498</v>
+        <v>176.4</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>201.77066184617064</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>203.8087493395663</v>
+        <v>180</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>195.65639936598365</v>
+        <v>172.8</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>183.42787440560966</v>
+        <v>162</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>191.58022437919234</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>187.50404939240099</v>
+        <v>165.6</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>179.35169941881836</v>
+        <v>158.4</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>163.25500095530137</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3179,99 +3179,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>181.90972521206325</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>177.31361192542266</v>
+        <v>156.6</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>188.27404733752934</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>195.30554403318814</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>203.8087493395663</v>
+        <v>180</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>199.73257435277498</v>
+        <v>176.4</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>201.77066184617064</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>203.8087493395663</v>
+        <v>180</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>195.65639936598365</v>
+        <v>172.8</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>183.42787440560966</v>
+        <v>162</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>191.58022437919234</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>187.50404939240099</v>
+        <v>165.6</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>179.35169941881836</v>
+        <v>158.4</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>163.25500095530137</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3280,99 +3280,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>181.90972521206325</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>177.31361192542266</v>
+        <v>156.6</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>188.27404733752934</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>195.30554403318814</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>203.8087493395663</v>
+        <v>180</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>199.73257435277498</v>
+        <v>176.4</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>201.77066184617064</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>203.8087493395663</v>
+        <v>180</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>195.65639936598365</v>
+        <v>172.8</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>183.42787440560966</v>
+        <v>162</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>191.58022437919234</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>187.50404939240099</v>
+        <v>165.6</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>179.35169941881836</v>
+        <v>158.4</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>163.25500095530137</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3381,99 +3381,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>181.90972521206325</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>177.31361192542266</v>
+        <v>156.6</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>188.27404733752934</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>195.30554403318814</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>203.8087493395663</v>
+        <v>180</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>199.73257435277498</v>
+        <v>176.4</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>201.77066184617064</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>203.8087493395663</v>
+        <v>180</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>195.65639936598365</v>
+        <v>172.8</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>183.42787440560966</v>
+        <v>162</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>191.58022437919234</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>187.50404939240099</v>
+        <v>165.6</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>179.35169941881836</v>
+        <v>158.4</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>163.25500095530137</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3482,99 +3482,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>181.90972521206325</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>177.31361192542266</v>
+        <v>156.6</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>175.27552443202703</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>188.27404733752934</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>195.30554403318814</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>203.8087493395663</v>
+        <v>180</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>199.73257435277498</v>
+        <v>176.4</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>201.77066184617064</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>203.8087493395663</v>
+        <v>180</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>195.65639936598365</v>
+        <v>172.8</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>183.42787440560966</v>
+        <v>162</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>191.58022437919234</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>185.46596189900535</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>187.50404939240099</v>
+        <v>165.6</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>189.54213688579665</v>
+        <v>167.4</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>179.35169941881836</v>
+        <v>158.4</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>163.25500095530137</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
   </sheetData>
@@ -3678,99 +3678,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>202.1219169022925</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>192.59396634104317</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>188.59673307736111</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>183.14596044506746</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>184.962884655832</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>192.79019415580569</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>209.19338593058814</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>217.00616003687574</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>226.45416593285142</v>
+        <v>200</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>214.70956783446937</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>209.83294325277728</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>190.57354661867299</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>185.29719871061269</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>158.3631142102389</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>164.7586874321301</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>149.40204400274806</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>145.35393686116464</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>144.58356099580047</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>146.48769756868171</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>166.37938382813209</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>201.65678430433678</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>201.38787952114362</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>190.6898297681619</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>181.39444550589042</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3779,99 +3779,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>202.1219169022925</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>192.59396634104317</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>188.59673307736111</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>183.14596044506746</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>184.962884655832</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>192.79019415580569</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>209.19338593058814</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>217.00616003687574</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>226.45416593285142</v>
+        <v>200</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>214.70956783446937</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>209.83294325277728</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>190.57354661867299</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>185.29719871061269</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>158.3631142102389</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>164.7586874321301</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>149.40204400274806</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>145.35393686116464</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>144.58356099580047</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>146.48769756868171</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>166.37938382813209</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>201.65678430433678</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>201.38787952114362</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>190.6898297681619</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>181.39444550589042</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3880,99 +3880,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>202.1219169022925</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>192.59396634104317</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>188.59673307736111</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>183.14596044506746</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>184.962884655832</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>192.79019415580569</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>209.19338593058814</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>217.00616003687574</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>226.45416593285142</v>
+        <v>200</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>214.70956783446937</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>209.83294325277728</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>190.57354661867299</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>185.29719871061269</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>158.3631142102389</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>164.7586874321301</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>149.40204400274806</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>145.35393686116464</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>144.58356099580047</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>146.48769756868171</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>166.37938382813209</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>201.65678430433678</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>201.38787952114362</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>190.6898297681619</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>181.39444550589042</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3981,99 +3981,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>202.1219169022925</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>192.59396634104317</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>188.59673307736111</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>183.14596044506746</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>184.962884655832</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>192.79019415580569</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>209.19338593058814</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>217.00616003687574</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>226.45416593285142</v>
+        <v>200</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>214.70956783446937</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>209.83294325277728</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>190.57354661867299</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>185.29719871061269</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>158.3631142102389</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>164.7586874321301</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>149.40204400274806</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>145.35393686116464</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>144.58356099580047</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>146.48769756868171</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>166.37938382813209</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>201.65678430433678</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>201.38787952114362</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>190.6898297681619</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>181.39444550589042</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4082,99 +4082,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>202.1219169022925</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>192.59396634104317</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>188.59673307736111</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>183.14596044506746</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>184.962884655832</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>192.79019415580569</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>209.19338593058814</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>217.00616003687574</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>226.45416593285142</v>
+        <v>200</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>214.70956783446937</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>209.83294325277728</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>190.57354661867299</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>185.29719871061269</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>158.3631142102389</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>164.7586874321301</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>149.40204400274806</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>145.35393686116464</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>144.58356099580047</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>146.48769756868171</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>166.37938382813209</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>201.65678430433678</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>201.38787952114362</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>190.6898297681619</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>181.39444550589042</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
   </sheetData>
@@ -4278,99 +4278,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>20.21219169022925</v>
+        <v>17.851022176578198</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>19.259396634104316</v>
+        <v>17.009531756474857</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>18.859673307736113</v>
+        <v>16.656503738887643</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>18.314596044506743</v>
+        <v>16.175101896723259</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>18.496288465583202</v>
+        <v>16.335569177444722</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>19.279019415580571</v>
+        <v>17.026862222792772</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>20.919338593058814</v>
+        <v>18.475560833146123</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>21.700616003687571</v>
+        <v>19.165570140248402</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>22.645416593285145</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>21.470956783446937</v>
+        <v>18.962739497416479</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>20.983294325277729</v>
+        <v>18.53204531596008</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>19.057354661867301</v>
+        <v>16.831092140312595</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>18.529719871061268</v>
+        <v>16.365095157097468</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>15.83631142102389</v>
+        <v>13.986328187682535</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>16.47586874321301</v>
+        <v>14.551173015822073</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>14.940204400274807</v>
+        <v>13.194903559164286</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>14.535393686116466</v>
+        <v>12.837382457716874</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>14.458356099580048</v>
+        <v>12.769344330690974</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>14.648769756868173</v>
+        <v>12.937514040887065</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>16.637938382813211</v>
+        <v>14.694309830225619</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>20.16567843043368</v>
+        <v>17.809942552713505</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>20.138787952114367</v>
+        <v>17.78619339516673</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>19.068982976816191</v>
+        <v>16.841362046278768</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>18.139444550589044</v>
+        <v>16.020411438107772</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4379,99 +4379,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>20.21219169022925</v>
+        <v>17.851022176578198</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>19.259396634104316</v>
+        <v>17.009531756474857</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>18.859673307736113</v>
+        <v>16.656503738887643</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>18.314596044506743</v>
+        <v>16.175101896723259</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>18.496288465583202</v>
+        <v>16.335569177444722</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>19.279019415580571</v>
+        <v>17.026862222792772</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>20.919338593058814</v>
+        <v>18.475560833146123</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>21.700616003687571</v>
+        <v>19.165570140248402</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>22.645416593285145</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>21.470956783446937</v>
+        <v>18.962739497416479</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>20.983294325277729</v>
+        <v>18.53204531596008</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>19.057354661867301</v>
+        <v>16.831092140312595</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>18.529719871061268</v>
+        <v>16.365095157097468</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>15.83631142102389</v>
+        <v>13.986328187682535</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>16.47586874321301</v>
+        <v>14.551173015822073</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>14.940204400274807</v>
+        <v>13.194903559164286</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>14.535393686116466</v>
+        <v>12.837382457716874</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>14.458356099580048</v>
+        <v>12.769344330690974</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>14.648769756868173</v>
+        <v>12.937514040887065</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>16.637938382813211</v>
+        <v>14.694309830225619</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>20.16567843043368</v>
+        <v>17.809942552713505</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>20.138787952114367</v>
+        <v>17.78619339516673</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>19.068982976816191</v>
+        <v>16.841362046278768</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>18.139444550589044</v>
+        <v>16.020411438107772</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4480,99 +4480,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>20.21219169022925</v>
+        <v>17.851022176578198</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>19.259396634104316</v>
+        <v>17.009531756474857</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>18.859673307736113</v>
+        <v>16.656503738887643</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>18.314596044506743</v>
+        <v>16.175101896723259</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>18.496288465583202</v>
+        <v>16.335569177444722</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>19.279019415580571</v>
+        <v>17.026862222792772</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>20.919338593058814</v>
+        <v>18.475560833146123</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>21.700616003687571</v>
+        <v>19.165570140248402</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>22.645416593285145</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>21.470956783446937</v>
+        <v>18.962739497416479</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>20.983294325277729</v>
+        <v>18.53204531596008</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>19.057354661867301</v>
+        <v>16.831092140312595</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>18.529719871061268</v>
+        <v>16.365095157097468</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>15.83631142102389</v>
+        <v>13.986328187682535</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>16.47586874321301</v>
+        <v>14.551173015822073</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>14.940204400274807</v>
+        <v>13.194903559164286</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>14.535393686116466</v>
+        <v>12.837382457716874</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>14.458356099580048</v>
+        <v>12.769344330690974</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>14.648769756868173</v>
+        <v>12.937514040887065</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>16.637938382813211</v>
+        <v>14.694309830225619</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>20.16567843043368</v>
+        <v>17.809942552713505</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>20.138787952114367</v>
+        <v>17.78619339516673</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>19.068982976816191</v>
+        <v>16.841362046278768</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>18.139444550589044</v>
+        <v>16.020411438107772</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4581,99 +4581,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>20.21219169022925</v>
+        <v>17.851022176578198</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>19.259396634104316</v>
+        <v>17.009531756474857</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>18.859673307736113</v>
+        <v>16.656503738887643</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>18.314596044506743</v>
+        <v>16.175101896723259</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>18.496288465583202</v>
+        <v>16.335569177444722</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>19.279019415580571</v>
+        <v>17.026862222792772</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>20.919338593058814</v>
+        <v>18.475560833146123</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>21.700616003687571</v>
+        <v>19.165570140248402</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>22.645416593285145</v>
+        <v>20</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>21.470956783446937</v>
+        <v>18.962739497416479</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>20.983294325277729</v>
+        <v>18.53204531596008</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>19.057354661867301</v>
+        <v>16.831092140312595</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>18.529719871061268</v>
+        <v>16.365095157097468</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>15.83631142102389</v>
+        <v>13.986328187682535</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>16.47586874321301</v>
+        <v>14.551173015822073</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>14.940204400274807</v>
+        <v>13.194903559164286</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>14.535393686116466</v>
+        <v>12.837382457716874</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>14.458356099580048</v>
+        <v>12.769344330690974</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>14.648769756868173</v>
+        <v>12.937514040887065</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>16.637938382813211</v>
+        <v>14.694309830225619</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>20.16567843043368</v>
+        <v>17.809942552713505</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>20.138787952114367</v>
+        <v>17.78619339516673</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>19.068982976816191</v>
+        <v>16.841362046278768</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>18.139444550589044</v>
+        <v>16.020411438107772</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4682,99 +4682,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>20.21219169022925</v>
+        <v>17.851022176578198</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>19.259396634104316</v>
+        <v>17.009531756474857</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>18.859673307736113</v>
+        <v>16.656503738887643</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>18.314596044506743</v>
+        <v>16.175101896723259</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>18.496288465583202</v>
+        <v>16.335569177444722</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>19.279019415580571</v>
+        <v>17.026862222792772</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>20.919338593058814</v>
+        <v>18.475560833146123</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>21.700616003687571</v>
+        <v>19.165570140248402</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>22.645416593285145</v>
+        <v>20</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>21.470956783446937</v>
+        <v>18.962739497416479</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>20.983294325277729</v>
+        <v>18.53204531596008</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>19.057354661867301</v>
+        <v>16.831092140312595</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>18.529719871061268</v>
+        <v>16.365095157097468</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>15.83631142102389</v>
+        <v>13.986328187682535</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>16.47586874321301</v>
+        <v>14.551173015822073</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>14.940204400274807</v>
+        <v>13.194903559164286</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>14.535393686116466</v>
+        <v>12.837382457716874</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>14.458356099580048</v>
+        <v>12.769344330690974</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>14.648769756868173</v>
+        <v>12.937514040887065</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>16.637938382813211</v>
+        <v>14.694309830225619</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>20.16567843043368</v>
+        <v>17.809942552713505</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>20.138787952114367</v>
+        <v>17.78619339516673</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>19.068982976816191</v>
+        <v>16.841362046278768</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>18.139444550589044</v>
+        <v>16.020411438107772</v>
       </c>
     </row>
   </sheetData>
@@ -4878,99 +4878,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>40.761749867913259</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>45.290833186570289</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>40.308841536047559</v>
+        <v>35.6</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>38.950116540450445</v>
+        <v>34.4</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>36.23266654925623</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>36.685574881121937</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>38.497208208584745</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>39.855933204181859</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4979,99 +4979,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>40.761749867913259</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>45.290833186570289</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>40.308841536047559</v>
+        <v>35.6</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>38.950116540450445</v>
+        <v>34.4</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>36.23266654925623</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>36.685574881121937</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>38.497208208584745</v>
+        <v>34</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>39.855933204181859</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5080,99 +5080,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>40.761749867913259</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>45.290833186570289</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>40.308841536047559</v>
+        <v>35.6</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>38.950116540450445</v>
+        <v>34.4</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>36.23266654925623</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>36.685574881121937</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>38.497208208584745</v>
+        <v>34</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>39.855933204181859</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5181,99 +5181,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>40.761749867913259</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>45.290833186570289</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>40.308841536047559</v>
+        <v>35.6</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>38.950116540450445</v>
+        <v>34.4</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>36.23266654925623</v>
+        <v>32</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>36.685574881121937</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>38.497208208584745</v>
+        <v>34</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>39.855933204181859</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -5282,99 +5282,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>40.761749867913259</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>40.424383380458501</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>45.290833186570289</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>41.21465819977896</v>
+        <v>36.4</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>40.308841536047559</v>
+        <v>35.6</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>38.950116540450445</v>
+        <v>34.4</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>36.23266654925623</v>
+        <v>32</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>36.685574881121937</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>38.044299876719045</v>
+        <v>33.6</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>37.59139154485333</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>37.13848321298763</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>38.497208208584745</v>
+        <v>34</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*(1+[1]Main!$B$4)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>39.855933204181859</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -5478,99 +5478,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>222.33410859252177</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>216.71663679773883</v>
+        <v>191.4</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>230.11272452364699</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>238.70677604056331</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>244.11759087561387</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>246.60858670087524</v>
+        <v>217.8</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>239.13559922509114</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>224.18962427352295</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>234.15360757456841</v>
+        <v>206.8</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>229.17161592404565</v>
+        <v>202.4</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>219.20763262300022</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$C$2</f>
-        <v>199.53389005647949</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5579,99 +5579,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>222.33410859252177</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>216.71663679773883</v>
+        <v>191.4</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>230.11272452364699</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>238.70677604056331</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>244.11759087561387</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>246.60858670087524</v>
+        <v>217.8</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>239.13559922509114</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>224.18962427352295</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>234.15360757456841</v>
+        <v>206.8</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>229.17161592404565</v>
+        <v>202.4</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>219.20763262300022</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$D$2</f>
-        <v>199.53389005647949</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5680,99 +5680,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>222.33410859252177</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>216.71663679773883</v>
+        <v>191.4</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>230.11272452364699</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>238.70677604056331</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>244.11759087561387</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>246.60858670087524</v>
+        <v>217.8</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>239.13559922509114</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>224.18962427352295</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>234.15360757456841</v>
+        <v>206.8</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>229.17161592404565</v>
+        <v>202.4</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>219.20763262300022</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$E$2</f>
-        <v>199.53389005647949</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5781,99 +5781,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>222.33410859252177</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>216.71663679773883</v>
+        <v>191.4</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>230.11272452364699</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>238.70677604056331</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>244.11759087561387</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>246.60858670087524</v>
+        <v>217.8</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>239.13559922509114</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>224.18962427352295</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>234.15360757456841</v>
+        <v>206.8</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>229.17161592404565</v>
+        <v>202.4</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>219.20763262300022</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$F$2</f>
-        <v>199.53389005647949</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -5882,99 +5882,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>222.33410859252177</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>216.71663679773883</v>
+        <v>191.4</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>214.22564097247749</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>230.11272452364699</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>238.70677604056331</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>244.11759087561387</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>246.60858670087524</v>
+        <v>217.8</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>249.0995825261366</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>239.13559922509114</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>224.18962427352295</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>234.15360757456841</v>
+        <v>206.8</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>226.68062009878432</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>229.17161592404565</v>
+        <v>202.4</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>231.66261174930705</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>219.20763262300022</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*(1+[1]Main!$B$5)^(Scenarios!$B$4-2020)*Scenarios!$G$2</f>
-        <v>199.53389005647949</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
   </sheetData>

--- a/data/HR1_2/Market Data/HR1_market_data_2030.xlsx
+++ b/data/HR1_2/Market Data/HR1_market_data_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6ACA18-22C2-470A-BE18-970B766D3E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4069B8-893D-4314-8B20-2BCBB8E4AA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
   <externalReferences>
     <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -142,8 +142,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Market Costs, Summer"/>
@@ -1062,7 +1065,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
